--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="H2">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="I2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="J2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N2">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O2">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P2">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q2">
-        <v>21.94910329183867</v>
+        <v>35.20228485223333</v>
       </c>
       <c r="R2">
-        <v>197.541929626548</v>
+        <v>316.8205636701</v>
       </c>
       <c r="S2">
-        <v>0.004709631416056784</v>
+        <v>0.00639875400989074</v>
       </c>
       <c r="T2">
-        <v>0.004709631416056785</v>
+        <v>0.00639875400989074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="H3">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="I3">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="J3">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P3">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q3">
-        <v>400.1607832995067</v>
+        <v>557.1239895557667</v>
       </c>
       <c r="R3">
-        <v>3601.44704969556</v>
+        <v>5014.1159060019</v>
       </c>
       <c r="S3">
-        <v>0.08586272393196134</v>
+        <v>0.1012689766343426</v>
       </c>
       <c r="T3">
-        <v>0.08586272393196137</v>
+        <v>0.1012689766343426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="H4">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="I4">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="J4">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N4">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O4">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P4">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q4">
-        <v>172.7197372593334</v>
+        <v>276.4058575671167</v>
       </c>
       <c r="R4">
-        <v>1554.477635334</v>
+        <v>2487.65271810405</v>
       </c>
       <c r="S4">
-        <v>0.03706057099253314</v>
+        <v>0.05024256513146954</v>
       </c>
       <c r="T4">
-        <v>0.03706057099253315</v>
+        <v>0.05024256513146953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="H5">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="I5">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="J5">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N5">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O5">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P5">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q5">
-        <v>4.314131852073333</v>
+        <v>3.201578954373333</v>
       </c>
       <c r="R5">
-        <v>38.82718666866</v>
+        <v>28.81421058936</v>
       </c>
       <c r="S5">
-        <v>0.0009256856935513459</v>
+        <v>0.0005819541617332964</v>
       </c>
       <c r="T5">
-        <v>0.0009256856935513461</v>
+        <v>0.0005819541617332964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>106.269536</v>
       </c>
       <c r="I6">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="J6">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N6">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O6">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P6">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q6">
-        <v>84.06124571263643</v>
+        <v>96.8350446711822</v>
       </c>
       <c r="R6">
-        <v>756.5512114137279</v>
+        <v>871.51540204064</v>
       </c>
       <c r="S6">
-        <v>0.01803706868646008</v>
+        <v>0.01760180150205123</v>
       </c>
       <c r="T6">
-        <v>0.01803706868646009</v>
+        <v>0.01760180150205123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>106.269536</v>
       </c>
       <c r="I7">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="J7">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P7">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q7">
         <v>1532.546158366684</v>
@@ -883,10 +883,10 @@
         <v>13792.91542530016</v>
       </c>
       <c r="S7">
-        <v>0.3288392896070901</v>
+        <v>0.2785724255500797</v>
       </c>
       <c r="T7">
-        <v>0.3288392896070902</v>
+        <v>0.2785724255500798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>106.269536</v>
       </c>
       <c r="I8">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="J8">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N8">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O8">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P8">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q8">
-        <v>661.4865345582223</v>
+        <v>760.3419402246578</v>
       </c>
       <c r="R8">
-        <v>5953.378811023999</v>
+        <v>6843.077462021921</v>
       </c>
       <c r="S8">
-        <v>0.1419355370937781</v>
+        <v>0.1382081038013068</v>
       </c>
       <c r="T8">
-        <v>0.1419355370937782</v>
+        <v>0.1382081038013068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>106.269536</v>
       </c>
       <c r="I9">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="J9">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N9">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O9">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P9">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q9">
-        <v>16.52237418686222</v>
+        <v>8.806957911011555</v>
       </c>
       <c r="R9">
-        <v>148.70136768176</v>
+        <v>79.262621199104</v>
       </c>
       <c r="S9">
-        <v>0.003545215105312554</v>
+        <v>0.001600849418853814</v>
       </c>
       <c r="T9">
-        <v>0.003545215105312556</v>
+        <v>0.001600849418853814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="H10">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="I10">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="J10">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N10">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O10">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P10">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q10">
-        <v>55.93252544154966</v>
+        <v>83.41647822031221</v>
       </c>
       <c r="R10">
-        <v>503.392728973947</v>
+        <v>750.7483039828099</v>
       </c>
       <c r="S10">
-        <v>0.01200147338578818</v>
+        <v>0.01516269545410837</v>
       </c>
       <c r="T10">
-        <v>0.01200147338578819</v>
+        <v>0.01516269545410837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="H11">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="I11">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="J11">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P11">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q11">
-        <v>1019.722896877177</v>
+        <v>1320.179111551154</v>
       </c>
       <c r="R11">
-        <v>9177.50607189459</v>
+        <v>11881.61200396039</v>
       </c>
       <c r="S11">
-        <v>0.2188025144786166</v>
+        <v>0.2399702581599901</v>
       </c>
       <c r="T11">
-        <v>0.2188025144786168</v>
+        <v>0.2399702581599902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="H12">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="I12">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="J12">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N12">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O12">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P12">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q12">
-        <v>440.1387596598333</v>
+        <v>654.9803029689228</v>
       </c>
       <c r="R12">
-        <v>3961.248836938501</v>
+        <v>5894.822726720306</v>
       </c>
       <c r="S12">
-        <v>0.09444082076414394</v>
+        <v>0.1190564151620958</v>
       </c>
       <c r="T12">
-        <v>0.09444082076414397</v>
+        <v>0.1190564151620958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="H13">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="I13">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="J13">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N13">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O13">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P13">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q13">
-        <v>10.99362859456833</v>
+        <v>7.586565537979556</v>
       </c>
       <c r="R13">
-        <v>98.942657351115</v>
+        <v>68.279089841816</v>
       </c>
       <c r="S13">
-        <v>0.002358909059610241</v>
+        <v>0.001379017494495553</v>
       </c>
       <c r="T13">
-        <v>0.002358909059610242</v>
+        <v>0.001379017494495553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="H14">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="I14">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="J14">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N14">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O14">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P14">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q14">
-        <v>8.789392685299333</v>
+        <v>6.653486878748889</v>
       </c>
       <c r="R14">
-        <v>79.104534167694</v>
+        <v>59.88138190874</v>
       </c>
       <c r="S14">
-        <v>0.001885944923050103</v>
+        <v>0.001209410867046287</v>
       </c>
       <c r="T14">
-        <v>0.001885944923050103</v>
+        <v>0.001209410867046287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="H15">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="I15">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="J15">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>129.79181</v>
       </c>
       <c r="O15">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P15">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q15">
-        <v>160.2420934883533</v>
+        <v>105.3004704071178</v>
       </c>
       <c r="R15">
-        <v>1442.17884139518</v>
+        <v>947.70423366406</v>
       </c>
       <c r="S15">
-        <v>0.03438323596336029</v>
+        <v>0.01914057028085718</v>
       </c>
       <c r="T15">
-        <v>0.0343832359633603</v>
+        <v>0.01914057028085718</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="H16">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="I16">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="J16">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N16">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O16">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P16">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q16">
-        <v>69.16462941966667</v>
+        <v>52.24270964944112</v>
       </c>
       <c r="R16">
-        <v>622.481664777</v>
+        <v>470.18438684497</v>
       </c>
       <c r="S16">
-        <v>0.01484069336517758</v>
+        <v>0.009496208818834975</v>
       </c>
       <c r="T16">
-        <v>0.01484069336517758</v>
+        <v>0.009496208818834973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="H17">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="I17">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="J17">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N17">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O17">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P17">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q17">
-        <v>1.727569388136666</v>
+        <v>0.6051216179182223</v>
       </c>
       <c r="R17">
-        <v>15.54812449323</v>
+        <v>5.446094561264</v>
       </c>
       <c r="S17">
-        <v>0.0003706855335093223</v>
+        <v>0.0001099935528440605</v>
       </c>
       <c r="T17">
-        <v>0.0003706855335093224</v>
+        <v>0.0001099935528440605</v>
       </c>
     </row>
   </sheetData>
